--- a/results/I3_N5_M2_T45_C100_DepCentral_s3_P5_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s3_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1183.475718237292</v>
+        <v>2076.503746025138</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728903</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.624823803610445</v>
+        <v>8.420622792985675</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.624823803610445</v>
+        <v>5.06951674225463</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.8000000000029</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>596.49</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.004604071012949</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>33.10555953090582</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.491243713793658</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.8839324825959</v>
+        <v>35.79579898937524</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>35.4627824732683</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39.50875628620634</v>
+        <v>38.42062279298568</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.99539592898705</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,15 +1057,225 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>50.75499999999964</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.12499999999964</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>49.95499999999964</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>48.15499999999964</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.96999999999964</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.055</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>116.775</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.675</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>115.335</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>117.75</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>35.25999999999986</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>27.32499999999985</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>30.18999999999986</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>28.38999999999985</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>138.9300000000003</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>135.9950000000003</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>145.9900000000003</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>137.6250000000003</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>146.2700000000003</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>71.61</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>59.79</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>64.8</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>67.035</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>71.685</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>138.9300000000003</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>135.9950000000003</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>145.9900000000003</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>137.6250000000003</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>146.2700000000003</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>111.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>116.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>114.675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>115.335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>117.75</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>38.93000000000029</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>35.99500000000029</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>45.99000000000029</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>37.62500000000028</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>46.27000000000029</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.05500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>16.77500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>14.675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>15.33500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.75</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1845,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.205</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1955,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2040,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2051,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2062,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2073,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2084,7 +2294,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2095,7 +2305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2106,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2117,7 +2327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2128,7 +2338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2139,12 +2349,122 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
